--- a/data/trans_orig/P24C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6B9048-457F-4A8C-8C01-2E746E7A537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6114A3-9713-42A9-BE1C-E13D264B717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{385FAC23-AE15-4DE7-AF1C-3A7111142381}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55F08ED0-3900-46DE-B60A-3D9990A24B48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="549">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>51,37%</t>
   </si>
   <si>
-    <t>44,33%</t>
+    <t>44,25%</t>
   </si>
   <si>
     <t>57,94%</t>
@@ -85,1555 +85,1522 @@
     <t>46,99%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>49,4%</t>
   </si>
   <si>
-    <t>44,38%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>48,22%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
   </si>
   <si>
     <t>30,66%</t>
@@ -2129,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D638F-B763-41E8-81DB-1A8F2EF97B90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C81E3D-B1BB-4E85-B26E-A37A55F6B946}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2800,10 +2767,10 @@
         <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2826,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2871,13 +2838,13 @@
         <v>95689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -2886,13 +2853,13 @@
         <v>58289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -2901,13 +2868,13 @@
         <v>153978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2889,13 @@
         <v>78258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3146,10 +3113,10 @@
         <v>27</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -3158,13 +3125,13 @@
         <v>50954</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3146,13 @@
         <v>57027</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -3194,13 +3161,13 @@
         <v>9316</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -3209,13 +3176,13 @@
         <v>66343</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3238,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3250,13 @@
         <v>17164</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3298,13 +3265,13 @@
         <v>3859</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -3313,13 +3280,13 @@
         <v>21023</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3301,13 @@
         <v>20129</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3349,13 +3316,13 @@
         <v>4274</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3364,13 +3331,13 @@
         <v>24403</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3352,13 @@
         <v>38533</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3400,13 +3367,13 @@
         <v>3087</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3415,13 +3382,13 @@
         <v>41619</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3456,13 @@
         <v>599880</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -3504,13 +3471,13 @@
         <v>348212</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>940</v>
@@ -3519,13 +3486,13 @@
         <v>948092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3507,13 @@
         <v>511219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
@@ -3558,10 +3525,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3570,13 +3537,13 @@
         <v>858150</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3558,13 @@
         <v>272291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>162</v>
@@ -3606,13 +3573,13 @@
         <v>167159</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>424</v>
@@ -3621,13 +3588,13 @@
         <v>439450</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3650,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A85363-D7F3-421A-A685-D871F930E08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25158CA7-1C92-45F5-A84F-5AC61790D5B8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3722,7 +3689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3829,13 +3796,13 @@
         <v>44278</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3844,13 +3811,13 @@
         <v>28425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3859,13 +3826,13 @@
         <v>72702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3847,13 @@
         <v>87133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -3895,13 +3862,13 @@
         <v>82827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3910,13 +3877,13 @@
         <v>169960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3898,13 @@
         <v>31774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -3946,13 +3913,13 @@
         <v>35967</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -3961,13 +3928,13 @@
         <v>67741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4002,13 @@
         <v>52589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4050,13 +4017,13 @@
         <v>29777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4065,13 +4032,13 @@
         <v>82366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4053,13 @@
         <v>190535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H9" s="7">
         <v>129</v>
@@ -4101,13 +4068,13 @@
         <v>136725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4116,13 +4083,13 @@
         <v>327259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4104,13 @@
         <v>101188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -4152,13 +4119,13 @@
         <v>81063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4167,13 +4134,13 @@
         <v>182251</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4208,13 @@
         <v>50212</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -4256,13 +4223,13 @@
         <v>31464</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -4271,13 +4238,13 @@
         <v>81676</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4259,13 @@
         <v>174241</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -4307,13 +4274,13 @@
         <v>116580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>277</v>
@@ -4322,13 +4289,13 @@
         <v>290821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4310,13 @@
         <v>98858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -4358,13 +4325,13 @@
         <v>100195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -4373,13 +4340,13 @@
         <v>199053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4447,13 +4414,13 @@
         <v>56743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4462,13 +4429,13 @@
         <v>38355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4477,13 +4444,13 @@
         <v>95098</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4465,13 @@
         <v>105228</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4513,13 +4480,13 @@
         <v>95977</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -4528,13 +4495,13 @@
         <v>201205</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4516,13 @@
         <v>117811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -4564,13 +4531,13 @@
         <v>106134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4579,13 +4546,13 @@
         <v>223945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4620,13 @@
         <v>24006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4668,13 +4635,13 @@
         <v>6375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4683,13 +4650,13 @@
         <v>30382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4671,13 @@
         <v>47139</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4719,13 +4686,13 @@
         <v>34883</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -4734,13 +4701,13 @@
         <v>82022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>78</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4722,13 @@
         <v>85224</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4770,13 +4737,13 @@
         <v>26570</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4785,13 +4752,13 @@
         <v>111794</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,7 +4814,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4859,13 +4826,13 @@
         <v>7949</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4874,13 +4841,13 @@
         <v>3883</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -4889,13 +4856,13 @@
         <v>11832</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4877,13 @@
         <v>20263</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4925,13 +4892,13 @@
         <v>8782</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4940,13 +4907,13 @@
         <v>29046</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4928,13 @@
         <v>50093</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4976,13 +4943,13 @@
         <v>10366</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -4991,13 +4958,13 @@
         <v>60459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>267</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>239</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5032,13 @@
         <v>235777</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H28" s="7">
         <v>128</v>
@@ -5080,13 +5047,13 @@
         <v>138279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>353</v>
@@ -5095,13 +5062,13 @@
         <v>374056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5083,13 @@
         <v>624540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -5131,13 +5098,13 @@
         <v>475773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>1032</v>
@@ -5146,13 +5113,13 @@
         <v>1100313</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5134,13 @@
         <v>484949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="H30" s="7">
         <v>327</v>
@@ -5182,13 +5149,13 @@
         <v>360295</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
       <c r="M30" s="7">
         <v>772</v>
@@ -5197,13 +5164,13 @@
         <v>845243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5226,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +5248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE33D36-19FF-422E-B45B-23D58EF4ABB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1441B449-75D1-4853-9051-D68CB8D91FE9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5298,7 +5265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5405,13 +5372,13 @@
         <v>24836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>389</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5420,13 +5387,13 @@
         <v>18360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5435,13 +5402,13 @@
         <v>43196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5423,13 @@
         <v>96775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -5471,13 +5438,13 @@
         <v>47413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5486,13 +5453,13 @@
         <v>144188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5474,13 @@
         <v>20691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -5522,13 +5489,13 @@
         <v>36871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -5537,13 +5504,13 @@
         <v>57562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5578,13 @@
         <v>43978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5626,13 +5593,13 @@
         <v>32669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -5641,13 +5608,13 @@
         <v>76647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5629,13 @@
         <v>149100</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -5677,13 +5644,13 @@
         <v>106793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M9" s="7">
         <v>256</v>
@@ -5692,13 +5659,13 @@
         <v>255893</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5680,13 @@
         <v>63978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5728,13 +5695,13 @@
         <v>69730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -5743,13 +5710,13 @@
         <v>133708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5784,13 @@
         <v>37151</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5832,13 +5799,13 @@
         <v>37056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -5847,13 +5814,13 @@
         <v>74207</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5835,13 @@
         <v>140277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -5883,13 +5850,13 @@
         <v>112027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -5898,13 +5865,13 @@
         <v>252304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5886,13 @@
         <v>84726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -5934,13 +5901,13 @@
         <v>67639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>149</v>
@@ -5949,13 +5916,13 @@
         <v>152365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +5978,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6023,13 +5990,13 @@
         <v>50033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6038,13 +6005,13 @@
         <v>20400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -6053,13 +6020,13 @@
         <v>70433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6041,13 @@
         <v>113098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6089,13 +6056,13 @@
         <v>101212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -6104,13 +6071,13 @@
         <v>214310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6092,13 @@
         <v>110470</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -6140,13 +6107,13 @@
         <v>101356</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -6155,13 +6122,13 @@
         <v>211827</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6196,13 @@
         <v>14342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6244,13 +6211,13 @@
         <v>11103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6259,13 +6226,13 @@
         <v>25445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6247,13 @@
         <v>51228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -6295,13 +6262,13 @@
         <v>41724</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -6310,13 +6277,13 @@
         <v>92952</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6298,13 @@
         <v>81267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6346,13 +6313,13 @@
         <v>58100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -6361,13 +6328,13 @@
         <v>139367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6390,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6435,13 +6402,13 @@
         <v>6392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6450,13 +6417,13 @@
         <v>3696</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6465,13 +6432,13 @@
         <v>10088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>518</v>
+        <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6453,13 @@
         <v>19429</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -6501,13 +6468,13 @@
         <v>16002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -6516,13 +6483,13 @@
         <v>35431</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6504,13 @@
         <v>55438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6552,13 +6519,13 @@
         <v>18343</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>520</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -6567,13 +6534,13 @@
         <v>73781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6608,13 @@
         <v>176731</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -6656,13 +6623,13 @@
         <v>123284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -6671,13 +6638,13 @@
         <v>300016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6659,13 @@
         <v>569906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
         <v>414</v>
@@ -6707,13 +6674,13 @@
         <v>425171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="M29" s="7">
         <v>949</v>
@@ -6722,13 +6689,13 @@
         <v>995078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>219</v>
+        <v>520</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,13 +6710,13 @@
         <v>416570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="H30" s="7">
         <v>335</v>
@@ -6758,13 +6725,13 @@
         <v>352039</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="M30" s="7">
         <v>723</v>
@@ -6773,13 +6740,13 @@
         <v>768610</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6802,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6114A3-9713-42A9-BE1C-E13D264B717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE971C5D-70ED-4374-AEDA-32A26F6E5F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55F08ED0-3900-46DE-B60A-3D9990A24B48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{377BF9C1-5363-4FFB-8A32-8FAE9BAA1EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="558">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,28 +76,25 @@
     <t>51,37%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>46,99%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
   </si>
   <si>
     <t>49,4%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>54,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +103,28 @@
     <t>41,12%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -136,1555 +133,1585 @@
     <t>7,51%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2015 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>45,78%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>47,22%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>32,79%</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C81E3D-B1BB-4E85-B26E-A37A55F6B946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66A359C-D6AC-4DC7-B0A1-ADB7B5E5B220}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2253,16 +2280,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>84</v>
@@ -2271,13 +2298,13 @@
         <v>84728</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -2286,13 +2313,13 @@
         <v>67935</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>154</v>
@@ -2301,19 +2328,19 @@
         <v>152663</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -2322,13 +2349,13 @@
         <v>15471</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -2337,13 +2364,13 @@
         <v>21587</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -2352,13 +2379,13 @@
         <v>37058</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2400,13 @@
         <v>206064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -2388,13 +2415,13 @@
         <v>168886</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>384</v>
@@ -2403,18 +2430,18 @@
         <v>374950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2426,13 +2453,13 @@
         <v>204643</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -2441,13 +2468,13 @@
         <v>90086</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -2456,19 +2483,19 @@
         <v>294728</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>152</v>
@@ -2477,13 +2504,13 @@
         <v>160339</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -2492,13 +2519,13 @@
         <v>106948</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>255</v>
@@ -2507,19 +2534,19 @@
         <v>267286</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>33</v>
@@ -2528,13 +2555,13 @@
         <v>34011</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2543,13 +2570,13 @@
         <v>35848</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2558,13 +2585,13 @@
         <v>69859</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2606,13 @@
         <v>398993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -2594,13 +2621,13 @@
         <v>232882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -2609,18 +2636,18 @@
         <v>631874</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2659,13 @@
         <v>137496</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -2647,13 +2674,13 @@
         <v>98134</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M12" s="7">
         <v>234</v>
@@ -2662,19 +2689,19 @@
         <v>235629</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>129</v>
@@ -2683,13 +2710,13 @@
         <v>135903</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2698,13 +2725,13 @@
         <v>93786</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>218</v>
@@ -2713,19 +2740,19 @@
         <v>229689</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>60</v>
@@ -2734,13 +2761,13 @@
         <v>66460</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -2749,13 +2776,13 @@
         <v>65541</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -2764,13 +2791,13 @@
         <v>132001</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2812,13 @@
         <v>339859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>247</v>
@@ -2800,13 +2827,13 @@
         <v>257461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>573</v>
@@ -2815,18 +2842,18 @@
         <v>597319</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2838,13 +2865,13 @@
         <v>95689</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -2853,13 +2880,13 @@
         <v>58289</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -2868,19 +2895,19 @@
         <v>153978</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>72</v>
@@ -2889,13 +2916,13 @@
         <v>78258</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2904,13 +2931,13 @@
         <v>54896</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -2919,19 +2946,19 @@
         <v>133154</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>55</v>
@@ -2940,13 +2967,13 @@
         <v>60789</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2955,13 +2982,13 @@
         <v>31781</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -2970,13 +2997,13 @@
         <v>92569</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3018,13 @@
         <v>234735</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -3006,13 +3033,13 @@
         <v>144966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -3021,18 +3048,18 @@
         <v>379701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3071,13 @@
         <v>39024</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -3059,13 +3086,13 @@
         <v>18480</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -3074,19 +3101,19 @@
         <v>57504</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>33</v>
@@ -3095,13 +3122,13 @@
         <v>31862</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -3110,13 +3137,13 @@
         <v>19092</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -3125,19 +3152,19 @@
         <v>50954</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>58</v>
@@ -3146,10 +3173,10 @@
         <v>57027</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>142</v>
@@ -3197,13 +3224,13 @@
         <v>127913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -3212,13 +3239,13 @@
         <v>46888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -3227,13 +3254,13 @@
         <v>174801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,7 +3319,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>20</v>
@@ -3343,7 +3370,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>41</v>
@@ -3403,13 +3430,13 @@
         <v>75826</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3418,13 +3445,13 @@
         <v>11220</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -3433,13 +3460,13 @@
         <v>87046</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,16 +3516,16 @@
         <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>490</v>
@@ -3507,13 +3534,13 @@
         <v>511219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
@@ -3522,13 +3549,13 @@
         <v>346931</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3537,19 +3564,19 @@
         <v>858150</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>262</v>
@@ -3558,13 +3585,13 @@
         <v>272291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>162</v>
@@ -3573,13 +3600,13 @@
         <v>167159</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>424</v>
@@ -3588,13 +3615,13 @@
         <v>439450</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3636,13 @@
         <v>1383390</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>844</v>
@@ -3624,13 +3651,13 @@
         <v>862302</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>2191</v>
@@ -3639,18 +3666,18 @@
         <v>2245692</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +3699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25158CA7-1C92-45F5-A84F-5AC61790D5B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27224E73-2BD2-4FC4-B08B-317FB2CE96BC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3796,13 +3823,13 @@
         <v>44278</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3811,13 +3838,13 @@
         <v>28425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3826,19 +3853,19 @@
         <v>72702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>84</v>
@@ -3847,13 +3874,13 @@
         <v>87133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -3862,13 +3889,13 @@
         <v>82827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3877,19 +3904,19 @@
         <v>169960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>33</v>
@@ -3898,13 +3925,13 @@
         <v>31774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -3913,13 +3940,13 @@
         <v>35967</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -3928,13 +3955,13 @@
         <v>67741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3976,13 @@
         <v>163185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -3964,13 +3991,13 @@
         <v>147218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>305</v>
@@ -3979,18 +4006,18 @@
         <v>310403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4002,13 +4029,13 @@
         <v>52589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4017,13 +4044,13 @@
         <v>29777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4032,19 +4059,19 @@
         <v>82366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>182</v>
@@ -4053,13 +4080,13 @@
         <v>190535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>129</v>
@@ -4068,13 +4095,13 @@
         <v>136725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4083,19 +4110,19 @@
         <v>327259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>97</v>
@@ -4104,13 +4131,13 @@
         <v>101188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -4119,13 +4146,13 @@
         <v>81063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4134,13 +4161,13 @@
         <v>182251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4182,13 @@
         <v>344312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>233</v>
@@ -4170,13 +4197,13 @@
         <v>247565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -4185,18 +4212,18 @@
         <v>591877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4208,13 +4235,13 @@
         <v>50212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -4223,13 +4250,13 @@
         <v>31464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -4238,19 +4265,19 @@
         <v>81676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>168</v>
@@ -4259,13 +4286,13 @@
         <v>174241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -4274,13 +4301,13 @@
         <v>116580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>277</v>
@@ -4289,19 +4316,19 @@
         <v>290821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>93</v>
@@ -4310,13 +4337,13 @@
         <v>98858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -4325,13 +4352,13 @@
         <v>100195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -4340,13 +4367,13 @@
         <v>199053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4388,13 @@
         <v>323311</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>234</v>
@@ -4376,13 +4403,13 @@
         <v>248239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>542</v>
@@ -4391,18 +4418,18 @@
         <v>571550</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4441,13 @@
         <v>56743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4429,13 +4456,13 @@
         <v>38355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4444,19 +4471,19 @@
         <v>95098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>97</v>
@@ -4465,13 +4492,13 @@
         <v>105228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4480,13 +4507,13 @@
         <v>95977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -4495,19 +4522,19 @@
         <v>201205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>102</v>
@@ -4516,13 +4543,13 @@
         <v>117811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -4531,13 +4558,13 @@
         <v>106134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4546,13 +4573,13 @@
         <v>223945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4594,13 @@
         <v>279782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -4582,13 +4609,13 @@
         <v>240465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>454</v>
@@ -4597,18 +4624,18 @@
         <v>520247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4620,13 +4647,13 @@
         <v>24006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4635,13 +4662,13 @@
         <v>6375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4650,19 +4677,19 @@
         <v>30382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>42</v>
@@ -4713,7 +4740,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>77</v>
@@ -4743,7 +4770,7 @@
         <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4752,13 +4779,13 @@
         <v>111794</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4800,13 @@
         <v>156369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -4788,13 +4815,13 @@
         <v>67829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>202</v>
@@ -4803,13 +4830,13 @@
         <v>224198</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4853,13 @@
         <v>7949</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4841,13 +4868,13 @@
         <v>3883</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -4859,16 +4886,16 @@
         <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
@@ -4877,13 +4904,13 @@
         <v>20263</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4892,13 +4919,13 @@
         <v>8782</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4907,19 +4934,19 @@
         <v>29046</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>43</v>
@@ -4928,13 +4955,13 @@
         <v>50093</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4943,13 +4970,13 @@
         <v>10366</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -4958,10 +4985,10 @@
         <v>60459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>358</v>
@@ -4979,13 +5006,13 @@
         <v>78306</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -4994,13 +5021,13 @@
         <v>23031</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>88</v>
@@ -5009,13 +5036,13 @@
         <v>101337</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5101,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>591</v>
@@ -5083,13 +5110,13 @@
         <v>624540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -5098,13 +5125,13 @@
         <v>475773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M29" s="7">
         <v>1032</v>
@@ -5113,19 +5140,19 @@
         <v>1100313</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>445</v>
@@ -5134,13 +5161,13 @@
         <v>484949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>327</v>
@@ -5149,13 +5176,13 @@
         <v>360295</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>772</v>
@@ -5164,13 +5191,13 @@
         <v>845243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5212,13 @@
         <v>1345266</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>896</v>
@@ -5200,33 +5227,33 @@
         <v>974347</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>2157</v>
       </c>
       <c r="N31" s="7">
-        <v>2319612</v>
+        <v>2319613</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1441B449-75D1-4853-9051-D68CB8D91FE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB5361F-9773-49FF-BA94-23FE00BD974A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5265,7 +5292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5372,13 +5399,13 @@
         <v>24836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5387,13 +5414,13 @@
         <v>18360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5402,19 +5429,19 @@
         <v>43196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>92</v>
@@ -5423,13 +5450,13 @@
         <v>96775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -5438,13 +5465,13 @@
         <v>47413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5453,19 +5480,19 @@
         <v>144188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -5474,13 +5501,13 @@
         <v>20691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -5489,13 +5516,13 @@
         <v>36871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>408</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -5504,13 +5531,13 @@
         <v>57562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5552,13 @@
         <v>142302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>104</v>
@@ -5540,13 +5567,13 @@
         <v>102644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -5555,18 +5582,18 @@
         <v>244946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5578,13 +5605,13 @@
         <v>43978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5593,13 +5620,13 @@
         <v>32669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -5608,19 +5635,19 @@
         <v>76647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>146</v>
@@ -5629,13 +5656,13 @@
         <v>149100</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -5644,13 +5671,13 @@
         <v>106793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M9" s="7">
         <v>256</v>
@@ -5659,19 +5686,19 @@
         <v>255893</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>59</v>
@@ -5680,13 +5707,13 @@
         <v>63978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5695,13 +5722,13 @@
         <v>69730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -5710,13 +5737,13 @@
         <v>133708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5758,13 @@
         <v>257056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -5746,13 +5773,13 @@
         <v>209192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5761,18 +5788,18 @@
         <v>466248</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5784,13 +5811,13 @@
         <v>37151</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>309</v>
+        <v>438</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5799,13 +5826,13 @@
         <v>37056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -5814,19 +5841,19 @@
         <v>74207</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>134</v>
@@ -5835,13 +5862,13 @@
         <v>140277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -5850,13 +5877,13 @@
         <v>112027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -5865,19 +5892,19 @@
         <v>252304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>80</v>
@@ -5886,13 +5913,13 @@
         <v>84726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -5901,13 +5928,13 @@
         <v>67639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>149</v>
@@ -5916,13 +5943,13 @@
         <v>152365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5964,13 @@
         <v>262154</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>221</v>
@@ -5952,13 +5979,13 @@
         <v>216722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>469</v>
@@ -5967,18 +5994,18 @@
         <v>478876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5990,13 +6017,13 @@
         <v>50033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6005,13 +6032,13 @@
         <v>20400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -6020,19 +6047,19 @@
         <v>70433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>98</v>
@@ -6041,13 +6068,13 @@
         <v>113098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6056,13 +6083,13 @@
         <v>101212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -6071,19 +6098,19 @@
         <v>214310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>102</v>
@@ -6095,10 +6122,10 @@
         <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -6107,13 +6134,13 @@
         <v>101356</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -6122,13 +6149,13 @@
         <v>211827</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6170,13 @@
         <v>273601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -6158,13 +6185,13 @@
         <v>222967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -6173,18 +6200,18 @@
         <v>496569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6223,13 @@
         <v>14342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6211,13 +6238,13 @@
         <v>11103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6226,19 +6253,19 @@
         <v>25445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>44</v>
@@ -6247,13 +6274,13 @@
         <v>51228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -6262,13 +6289,13 @@
         <v>41724</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -6277,19 +6304,19 @@
         <v>92952</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>73</v>
@@ -6298,13 +6325,13 @@
         <v>81267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6313,13 +6340,13 @@
         <v>58100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -6328,13 +6355,13 @@
         <v>139367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6376,13 @@
         <v>146836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -6364,13 +6391,13 @@
         <v>110928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>225</v>
@@ -6379,13 +6406,13 @@
         <v>257764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6429,13 @@
         <v>6392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6417,13 +6444,13 @@
         <v>3696</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6432,19 +6459,19 @@
         <v>10088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>519</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
@@ -6453,13 +6480,13 @@
         <v>19429</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -6468,13 +6495,13 @@
         <v>16002</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -6483,19 +6510,19 @@
         <v>35431</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>56</v>
@@ -6504,13 +6531,13 @@
         <v>55438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6519,13 +6546,13 @@
         <v>18343</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -6534,13 +6561,13 @@
         <v>73781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6582,13 @@
         <v>81259</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -6570,13 +6597,13 @@
         <v>38041</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -6585,13 +6612,13 @@
         <v>119300</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6635,13 @@
         <v>176731</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>526</v>
+        <v>284</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -6623,13 +6650,13 @@
         <v>123284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -6638,19 +6665,19 @@
         <v>300016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>535</v>
@@ -6659,13 +6686,13 @@
         <v>569906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
         <v>414</v>
@@ -6674,13 +6701,13 @@
         <v>425171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>949</v>
@@ -6689,19 +6716,19 @@
         <v>995078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>388</v>
@@ -6710,13 +6737,13 @@
         <v>416570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>542</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>335</v>
@@ -6725,13 +6752,13 @@
         <v>352039</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>545</v>
+        <v>332</v>
       </c>
       <c r="M30" s="7">
         <v>723</v>
@@ -6740,13 +6767,13 @@
         <v>768610</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>546</v>
+        <v>304</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6788,13 @@
         <v>1163208</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>872</v>
@@ -6776,13 +6803,13 @@
         <v>900495</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>1953</v>
@@ -6791,18 +6818,18 @@
         <v>2063703</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE971C5D-70ED-4374-AEDA-32A26F6E5F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4851C2-CD45-4C2E-B0C2-265955838820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{377BF9C1-5363-4FFB-8A32-8FAE9BAA1EA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09F91C9F-9553-4763-AD37-1B9386038990}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="560">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -76,1642 +76,1648 @@
     <t>51,37%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>46,08%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2012 (Tasa respuesta: 33,15%)</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66A359C-D6AC-4DC7-B0A1-ADB7B5E5B220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126F5AAA-A3B7-409E-9F5B-CF7A56187343}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2280,16 +2286,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>84</v>
@@ -2298,13 +2304,13 @@
         <v>84728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -2313,13 +2319,13 @@
         <v>67935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>154</v>
@@ -2328,19 +2334,19 @@
         <v>152663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -2349,13 +2355,13 @@
         <v>15471</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -2364,13 +2370,13 @@
         <v>21587</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -2379,13 +2385,13 @@
         <v>37058</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2406,13 @@
         <v>206064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -2415,13 +2421,13 @@
         <v>168886</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>384</v>
@@ -2430,18 +2436,18 @@
         <v>374950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2453,13 +2459,13 @@
         <v>204643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>84</v>
@@ -2468,13 +2474,13 @@
         <v>90086</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>285</v>
@@ -2483,19 +2489,19 @@
         <v>294728</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>152</v>
@@ -2504,13 +2510,13 @@
         <v>160339</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -2519,13 +2525,13 @@
         <v>106948</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>255</v>
@@ -2534,19 +2540,19 @@
         <v>267286</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>33</v>
@@ -2555,13 +2561,13 @@
         <v>34011</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2570,13 +2576,13 @@
         <v>35848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2585,13 +2591,13 @@
         <v>69859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2612,13 @@
         <v>398993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -2621,13 +2627,13 @@
         <v>232882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -2636,18 +2642,18 @@
         <v>631874</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2659,13 +2665,13 @@
         <v>137496</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -2674,13 +2680,13 @@
         <v>98134</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>234</v>
@@ -2689,19 +2695,19 @@
         <v>235629</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>129</v>
@@ -2710,13 +2716,13 @@
         <v>135903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -2725,13 +2731,13 @@
         <v>93786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>218</v>
@@ -2740,19 +2746,19 @@
         <v>229689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>60</v>
@@ -2761,13 +2767,13 @@
         <v>66460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -2776,13 +2782,13 @@
         <v>65541</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -2791,13 +2797,13 @@
         <v>132001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2818,13 @@
         <v>339859</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>247</v>
@@ -2827,13 +2833,13 @@
         <v>257461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>573</v>
@@ -2842,18 +2848,18 @@
         <v>597319</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2865,13 +2871,13 @@
         <v>95689</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -2880,13 +2886,13 @@
         <v>58289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -2895,19 +2901,19 @@
         <v>153978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>72</v>
@@ -2916,13 +2922,13 @@
         <v>78258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -2931,13 +2937,13 @@
         <v>54896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -2946,19 +2952,19 @@
         <v>133154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>55</v>
@@ -2967,13 +2973,13 @@
         <v>60789</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -2982,13 +2988,13 @@
         <v>31781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -2997,13 +3003,13 @@
         <v>92569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3024,13 @@
         <v>234735</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>139</v>
@@ -3033,13 +3039,13 @@
         <v>144966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -3048,18 +3054,18 @@
         <v>379701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3071,13 +3077,13 @@
         <v>39024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -3086,13 +3092,13 @@
         <v>18480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -3101,19 +3107,19 @@
         <v>57504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>33</v>
@@ -3122,13 +3128,13 @@
         <v>31862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -3137,13 +3143,13 @@
         <v>19092</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -3152,19 +3158,19 @@
         <v>50954</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>58</v>
@@ -3173,13 +3179,13 @@
         <v>57027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -3188,13 +3194,13 @@
         <v>9316</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -3203,13 +3209,13 @@
         <v>66343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3230,13 @@
         <v>127913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -3239,13 +3245,13 @@
         <v>46888</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -3254,18 +3260,18 @@
         <v>174801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3283,13 @@
         <v>17164</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3292,13 +3298,13 @@
         <v>3859</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -3307,19 +3313,19 @@
         <v>21023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>20</v>
@@ -3328,13 +3334,13 @@
         <v>20129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3343,13 +3349,13 @@
         <v>4274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3358,19 +3364,19 @@
         <v>24403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>41</v>
@@ -3379,13 +3385,13 @@
         <v>38533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3394,13 +3400,13 @@
         <v>3087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3409,13 +3415,13 @@
         <v>41619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3436,13 @@
         <v>75826</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3445,13 +3451,13 @@
         <v>11220</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -3460,13 +3466,13 @@
         <v>87046</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3489,13 @@
         <v>599880</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>345</v>
@@ -3498,13 +3504,13 @@
         <v>348212</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>940</v>
@@ -3513,19 +3519,19 @@
         <v>948092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>490</v>
@@ -3534,13 +3540,13 @@
         <v>511219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>337</v>
@@ -3549,13 +3555,13 @@
         <v>346931</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>827</v>
@@ -3564,19 +3570,19 @@
         <v>858150</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>262</v>
@@ -3585,13 +3591,13 @@
         <v>272291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>162</v>
@@ -3600,13 +3606,13 @@
         <v>167159</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="M30" s="7">
         <v>424</v>
@@ -3615,13 +3621,13 @@
         <v>439450</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3642,13 @@
         <v>1383390</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>844</v>
@@ -3651,13 +3657,13 @@
         <v>862302</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>2191</v>
@@ -3666,18 +3672,18 @@
         <v>2245692</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +3705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27224E73-2BD2-4FC4-B08B-317FB2CE96BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38CDA19-FED8-4A9A-9173-B85E479851EE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3716,7 +3722,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3823,13 +3829,13 @@
         <v>44278</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3838,13 +3844,13 @@
         <v>28425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3853,19 +3859,19 @@
         <v>72702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>84</v>
@@ -3874,13 +3880,13 @@
         <v>87133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -3889,13 +3895,13 @@
         <v>82827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3904,19 +3910,19 @@
         <v>169960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>33</v>
@@ -3925,13 +3931,13 @@
         <v>31774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -3940,13 +3946,13 @@
         <v>35967</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -3955,13 +3961,13 @@
         <v>67741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3982,13 @@
         <v>163185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -3991,13 +3997,13 @@
         <v>147218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>305</v>
@@ -4006,18 +4012,18 @@
         <v>310403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4029,13 +4035,13 @@
         <v>52589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4044,13 +4050,13 @@
         <v>29777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4059,19 +4065,19 @@
         <v>82366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>182</v>
@@ -4080,13 +4086,13 @@
         <v>190535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>129</v>
@@ -4095,13 +4101,13 @@
         <v>136725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4110,19 +4116,19 @@
         <v>327259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>97</v>
@@ -4131,13 +4137,13 @@
         <v>101188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -4146,13 +4152,13 @@
         <v>81063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4161,13 +4167,13 @@
         <v>182251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4188,13 @@
         <v>344312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>233</v>
@@ -4197,13 +4203,13 @@
         <v>247565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -4212,18 +4218,18 @@
         <v>591877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4235,13 +4241,13 @@
         <v>50212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -4250,13 +4256,13 @@
         <v>31464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -4265,19 +4271,19 @@
         <v>81676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>168</v>
@@ -4286,13 +4292,13 @@
         <v>174241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -4301,13 +4307,13 @@
         <v>116580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>277</v>
@@ -4316,19 +4322,19 @@
         <v>290821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>93</v>
@@ -4337,13 +4343,13 @@
         <v>98858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -4352,13 +4358,13 @@
         <v>100195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -4367,13 +4373,13 @@
         <v>199053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4394,13 @@
         <v>323311</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>234</v>
@@ -4403,13 +4409,13 @@
         <v>248239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>542</v>
@@ -4418,18 +4424,18 @@
         <v>571550</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4441,13 +4447,13 @@
         <v>56743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4456,13 +4462,13 @@
         <v>38355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4471,19 +4477,19 @@
         <v>95098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>97</v>
@@ -4492,13 +4498,13 @@
         <v>105228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4507,13 +4513,13 @@
         <v>95977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -4522,19 +4528,19 @@
         <v>201205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>102</v>
@@ -4543,13 +4549,13 @@
         <v>117811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -4558,13 +4564,13 @@
         <v>106134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4573,13 +4579,13 @@
         <v>223945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4600,13 @@
         <v>279782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -4609,13 +4615,13 @@
         <v>240465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>454</v>
@@ -4624,18 +4630,18 @@
         <v>520247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4647,13 +4653,13 @@
         <v>24006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4662,13 +4668,13 @@
         <v>6375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4677,19 +4683,19 @@
         <v>30382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>42</v>
@@ -4698,13 +4704,13 @@
         <v>47139</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4713,13 +4719,13 @@
         <v>34883</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -4728,19 +4734,19 @@
         <v>82022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>325</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>77</v>
@@ -4749,13 +4755,13 @@
         <v>85224</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4764,13 +4770,13 @@
         <v>26570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4779,13 +4785,13 @@
         <v>111794</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4806,13 @@
         <v>156369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -4815,13 +4821,13 @@
         <v>67829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>202</v>
@@ -4830,18 +4836,18 @@
         <v>224198</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4853,13 +4859,13 @@
         <v>7949</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4868,13 +4874,13 @@
         <v>3883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -4883,19 +4889,19 @@
         <v>11832</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>18</v>
@@ -4904,13 +4910,13 @@
         <v>20263</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -4919,13 +4925,13 @@
         <v>8782</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4934,19 +4940,19 @@
         <v>29046</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>112</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>43</v>
@@ -4955,13 +4961,13 @@
         <v>50093</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4970,13 +4976,13 @@
         <v>10366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -4985,13 +4991,13 @@
         <v>60459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5012,13 @@
         <v>78306</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -5021,13 +5027,13 @@
         <v>23031</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>88</v>
@@ -5036,13 +5042,13 @@
         <v>101337</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5065,13 @@
         <v>235777</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H28" s="7">
         <v>128</v>
@@ -5074,13 +5080,13 @@
         <v>138279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>353</v>
@@ -5089,19 +5095,19 @@
         <v>374056</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>591</v>
@@ -5110,13 +5116,13 @@
         <v>624540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -5125,13 +5131,13 @@
         <v>475773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>1032</v>
@@ -5140,19 +5146,19 @@
         <v>1100313</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>445</v>
@@ -5161,13 +5167,13 @@
         <v>484949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>327</v>
@@ -5176,13 +5182,13 @@
         <v>360295</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7">
         <v>772</v>
@@ -5191,13 +5197,13 @@
         <v>845243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5218,13 @@
         <v>1345266</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>896</v>
@@ -5227,33 +5233,33 @@
         <v>974347</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>2157</v>
       </c>
       <c r="N31" s="7">
-        <v>2319613</v>
+        <v>2319612</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +5281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB5361F-9773-49FF-BA94-23FE00BD974A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344F2A10-FB91-4D87-9DA5-E8917D753DEF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5292,7 +5298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5399,13 +5405,13 @@
         <v>24836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5414,13 +5420,13 @@
         <v>18360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5429,19 +5435,19 @@
         <v>43196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>92</v>
@@ -5450,13 +5456,13 @@
         <v>96775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -5465,13 +5471,13 @@
         <v>47413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5480,19 +5486,19 @@
         <v>144188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>18</v>
@@ -5501,13 +5507,13 @@
         <v>20691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -5516,13 +5522,13 @@
         <v>36871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -5531,10 +5537,10 @@
         <v>57562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>411</v>
@@ -5552,13 +5558,13 @@
         <v>142302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>104</v>
@@ -5567,13 +5573,13 @@
         <v>102644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -5582,18 +5588,18 @@
         <v>244946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5647,7 +5653,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>146</v>
@@ -5659,10 +5665,10 @@
         <v>421</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -5671,13 +5677,13 @@
         <v>106793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M9" s="7">
         <v>256</v>
@@ -5686,19 +5692,19 @@
         <v>255893</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>59</v>
@@ -5707,13 +5713,13 @@
         <v>63978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5722,13 +5728,13 @@
         <v>69730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -5737,13 +5743,13 @@
         <v>133708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5764,13 @@
         <v>257056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -5773,13 +5779,13 @@
         <v>209192</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5788,18 +5794,18 @@
         <v>466248</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5811,10 +5817,10 @@
         <v>37151</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>439</v>
@@ -5826,13 +5832,13 @@
         <v>37056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>238</v>
+        <v>440</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -5841,19 +5847,19 @@
         <v>74207</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>134</v>
@@ -5862,13 +5868,13 @@
         <v>140277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -5877,13 +5883,13 @@
         <v>112027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -5892,19 +5898,19 @@
         <v>252304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>80</v>
@@ -5913,13 +5919,13 @@
         <v>84726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -5928,13 +5934,13 @@
         <v>67639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>149</v>
@@ -5943,13 +5949,13 @@
         <v>152365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5970,13 @@
         <v>262154</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>221</v>
@@ -5979,13 +5985,13 @@
         <v>216722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>469</v>
@@ -5994,18 +6000,18 @@
         <v>478876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6017,13 +6023,13 @@
         <v>50033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6032,13 +6038,13 @@
         <v>20400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -6047,19 +6053,19 @@
         <v>70433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>98</v>
@@ -6068,13 +6074,13 @@
         <v>113098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6083,13 +6089,13 @@
         <v>101212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -6101,16 +6107,16 @@
         <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>102</v>
@@ -6119,13 +6125,13 @@
         <v>110470</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -6134,13 +6140,13 @@
         <v>101356</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -6149,13 +6155,13 @@
         <v>211827</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6176,13 @@
         <v>273601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>204</v>
@@ -6185,13 +6191,13 @@
         <v>222967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -6200,18 +6206,18 @@
         <v>496569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6223,13 +6229,13 @@
         <v>14342</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6238,13 +6244,13 @@
         <v>11103</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6253,19 +6259,19 @@
         <v>25445</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>44</v>
@@ -6274,13 +6280,13 @@
         <v>51228</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -6289,13 +6295,13 @@
         <v>41724</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -6304,19 +6310,19 @@
         <v>92952</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>73</v>
@@ -6325,13 +6331,13 @@
         <v>81267</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6340,13 +6346,13 @@
         <v>58100</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -6355,13 +6361,13 @@
         <v>139367</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6382,13 @@
         <v>146836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -6391,13 +6397,13 @@
         <v>110928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>225</v>
@@ -6406,18 +6412,18 @@
         <v>257764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6435,13 @@
         <v>6392</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6444,13 +6450,13 @@
         <v>3696</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6459,19 +6465,19 @@
         <v>10088</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>21</v>
@@ -6480,13 +6486,13 @@
         <v>19429</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -6522,7 +6528,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>56</v>
@@ -6534,10 +6540,10 @@
         <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>530</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6546,7 +6552,7 @@
         <v>18343</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>531</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>532</v>
@@ -6582,13 +6588,13 @@
         <v>81259</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -6597,13 +6603,13 @@
         <v>38041</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M27" s="7">
         <v>116</v>
@@ -6612,13 +6618,13 @@
         <v>119300</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6641,13 @@
         <v>176731</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -6650,13 +6656,13 @@
         <v>123284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M28" s="7">
         <v>281</v>
@@ -6665,19 +6671,19 @@
         <v>300016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>535</v>
@@ -6686,13 +6692,13 @@
         <v>569906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>546</v>
+        <v>403</v>
       </c>
       <c r="H29" s="7">
         <v>414</v>
@@ -6704,10 +6710,10 @@
         <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>949</v>
@@ -6716,19 +6722,19 @@
         <v>995078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>531</v>
+        <v>219</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>388</v>
@@ -6737,13 +6743,13 @@
         <v>416570</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>335</v>
@@ -6758,7 +6764,7 @@
         <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>332</v>
+        <v>556</v>
       </c>
       <c r="M30" s="7">
         <v>723</v>
@@ -6767,13 +6773,13 @@
         <v>768610</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>304</v>
+        <v>557</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6794,13 @@
         <v>1163208</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="7">
         <v>872</v>
@@ -6803,13 +6809,13 @@
         <v>900495</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>1953</v>
@@ -6818,18 +6824,18 @@
         <v>2063703</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4851C2-CD45-4C2E-B0C2-265955838820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00FFC508-B675-4784-BF14-A802873186A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09F91C9F-9553-4763-AD37-1B9386038990}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{97A7C682-FB60-4B9B-B3DA-4D2E8EBAD867}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="612">
   <si>
     <t>Población según si su médico le ha aconsejado que deje de fumar en 2007 (Tasa respuesta: 33,65%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No he acudido/consultado al médico</t>
@@ -163,7 +163,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>51,29%</t>
@@ -247,7 +247,7 @@
     <t>13,43%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>40,46%</t>
@@ -328,7 +328,7 @@
     <t>25,74%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>40,76%</t>
@@ -412,7 +412,7 @@
     <t>29,27%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,51%</t>
@@ -493,88 +493,151 @@
     <t>45,29%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>43,36%</t>
@@ -886,9 +949,6 @@
     <t>46,44%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
     <t>30,78%</t>
   </si>
   <si>
@@ -1048,231 +1108,276 @@
     <t>57,15%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que deje de fumar en 2016 (Tasa respuesta: 29,73%)</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
     <t>29,88%</t>
   </si>
   <si>
@@ -1291,9 +1396,6 @@
     <t>10,87%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
     <t>16,44%</t>
   </si>
   <si>
@@ -1417,9 +1519,6 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
     <t>37,49%</t>
   </si>
   <si>
@@ -1576,79 +1675,139 @@
     <t>61,32%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>15,19%</t>
@@ -1697,9 +1856,6 @@
   </si>
   <si>
     <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
   </si>
   <si>
     <t>39,09%</t>
@@ -2129,8 +2285,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126F5AAA-A3B7-409E-9F5B-CF7A56187343}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8790D84A-F566-46F9-8CEE-5CD5FF656A61}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3277,10 +3433,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>17164</v>
+        <v>15512</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>152</v>
@@ -3307,10 +3463,10 @@
         <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>21023</v>
+        <v>19371</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>158</v>
@@ -3328,10 +3484,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>20129</v>
+        <v>12238</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>161</v>
@@ -3343,10 +3499,10 @@
         <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>4274</v>
+        <v>1829</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>164</v>
@@ -3358,10 +3514,10 @@
         <v>166</v>
       </c>
       <c r="M25" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>24403</v>
+        <v>14067</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>167</v>
@@ -3379,10 +3535,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D26" s="7">
-        <v>38533</v>
+        <v>25423</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>170</v>
@@ -3394,34 +3550,34 @@
         <v>172</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>3087</v>
+        <v>897</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>29</v>
+      </c>
+      <c r="N26" s="7">
+        <v>26319</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M26" s="7">
-        <v>44</v>
-      </c>
-      <c r="N26" s="7">
-        <v>41619</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,10 +3586,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>75826</v>
+        <v>53173</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3445,10 +3601,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>11220</v>
+        <v>6585</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3460,10 +3616,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N27" s="7">
-        <v>87046</v>
+        <v>59758</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3477,55 +3633,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>595</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>599880</v>
+        <v>1652</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="7">
-        <v>345</v>
-      </c>
-      <c r="I28" s="7">
-        <v>348212</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1652</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="M28" s="7">
-        <v>940</v>
-      </c>
-      <c r="N28" s="7">
-        <v>948092</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,49 +3690,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>490</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>511219</v>
+        <v>7891</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2445</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10336</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="7">
-        <v>337</v>
-      </c>
-      <c r="I29" s="7">
-        <v>346931</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M29" s="7">
-        <v>827</v>
-      </c>
-      <c r="N29" s="7">
-        <v>858150</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,49 +3741,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>272291</v>
+        <v>13110</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2190</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" s="7">
+        <v>15</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15300</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="7">
-        <v>162</v>
-      </c>
-      <c r="I30" s="7">
-        <v>167159</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="7">
-        <v>424</v>
-      </c>
-      <c r="N30" s="7">
-        <v>439450</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,63 +3792,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7">
+        <v>22654</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4635</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>27</v>
+      </c>
+      <c r="N31" s="7">
+        <v>27288</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>595</v>
+      </c>
+      <c r="D32" s="7">
+        <v>599880</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="7">
+        <v>345</v>
+      </c>
+      <c r="I32" s="7">
+        <v>348212</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" s="7">
+        <v>940</v>
+      </c>
+      <c r="N32" s="7">
+        <v>948092</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>490</v>
+      </c>
+      <c r="D33" s="7">
+        <v>511218</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="7">
+        <v>337</v>
+      </c>
+      <c r="I33" s="7">
+        <v>346931</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="7">
+        <v>827</v>
+      </c>
+      <c r="N33" s="7">
+        <v>858150</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>262</v>
+      </c>
+      <c r="D34" s="7">
+        <v>272291</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="7">
+        <v>162</v>
+      </c>
+      <c r="I34" s="7">
+        <v>167159</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="7">
+        <v>424</v>
+      </c>
+      <c r="N34" s="7">
+        <v>439450</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1347</v>
       </c>
-      <c r="D31" s="7">
-        <v>1383390</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>1383389</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>844</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>862302</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>2191</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>2245692</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3705,8 +4068,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38CDA19-FED8-4A9A-9173-B85E479851EE}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C8224C-021D-4C42-805A-7F5DC918059E}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3722,7 +4085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3829,13 +4192,13 @@
         <v>44278</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3844,13 +4207,13 @@
         <v>28425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3859,13 +4222,13 @@
         <v>72702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +4243,13 @@
         <v>87133</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -3895,13 +4258,13 @@
         <v>82827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3910,13 +4273,13 @@
         <v>169960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +4294,13 @@
         <v>31774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -3946,13 +4309,13 @@
         <v>35967</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -3961,13 +4324,13 @@
         <v>67741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4398,13 @@
         <v>52589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4050,13 +4413,13 @@
         <v>29777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4065,13 +4428,13 @@
         <v>82366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4449,13 @@
         <v>190535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>129</v>
@@ -4101,13 +4464,13 @@
         <v>136725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>311</v>
@@ -4116,13 +4479,13 @@
         <v>327259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4500,13 @@
         <v>101188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -4152,10 +4515,10 @@
         <v>81063</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>76</v>
@@ -4167,13 +4530,13 @@
         <v>182251</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4604,13 @@
         <v>50212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -4256,13 +4619,13 @@
         <v>31464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -4271,13 +4634,13 @@
         <v>81676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4655,13 @@
         <v>174241</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -4307,13 +4670,13 @@
         <v>116580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>277</v>
@@ -4322,13 +4685,13 @@
         <v>290821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4706,13 @@
         <v>98858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -4358,13 +4721,13 @@
         <v>100195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -4373,13 +4736,13 @@
         <v>199053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4810,13 @@
         <v>56743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4462,13 +4825,13 @@
         <v>38355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4477,13 +4840,13 @@
         <v>95098</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4861,13 @@
         <v>105228</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4513,13 +4876,13 @@
         <v>95977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -4528,13 +4891,13 @@
         <v>201205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4912,13 @@
         <v>117811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>89</v>
@@ -4564,13 +4927,13 @@
         <v>106134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -4579,13 +4942,13 @@
         <v>223945</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +5016,13 @@
         <v>24006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -4668,13 +5031,13 @@
         <v>6375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4683,13 +5046,13 @@
         <v>30382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +5067,13 @@
         <v>47139</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -4719,13 +5082,13 @@
         <v>34883</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -4734,10 +5097,10 @@
         <v>82022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>78</v>
@@ -4758,10 +5121,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -4770,13 +5133,13 @@
         <v>26570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4785,13 +5148,13 @@
         <v>111794</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,49 +5216,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>7949</v>
+        <v>6795</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>3883</v>
+        <v>1912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>11832</v>
+        <v>8707</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,49 +5267,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>20263</v>
+        <v>15025</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>8782</v>
+        <v>7730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>29046</v>
+        <v>22755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,49 +5318,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>50093</v>
+        <v>29434</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>10366</v>
+        <v>9361</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="M26" s="7">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N26" s="7">
-        <v>60459</v>
+        <v>38796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,10 +5369,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7">
-        <v>78306</v>
+        <v>51254</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5021,10 +5384,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" s="7">
-        <v>23031</v>
+        <v>19003</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5036,10 +5399,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="N27" s="7">
-        <v>101337</v>
+        <v>70257</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5053,55 +5416,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>235777</v>
+        <v>1154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="H28" s="7">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>138279</v>
+        <v>1971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>367</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>374056</v>
+        <v>3125</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>369</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +5473,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>591</v>
+        <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>624540</v>
+        <v>5238</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="H29" s="7">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>475773</v>
+        <v>1053</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
-        <v>1032</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>1100313</v>
+        <v>6291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,49 +5524,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>484949</v>
+        <v>20659</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H30" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>360295</v>
+        <v>1005</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>383</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>384</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
-        <v>772</v>
+        <v>19</v>
       </c>
       <c r="N30" s="7">
-        <v>845243</v>
+        <v>21663</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,63 +5575,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>27052</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4029</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>27</v>
+      </c>
+      <c r="N31" s="7">
+        <v>31080</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>225</v>
+      </c>
+      <c r="D32" s="7">
+        <v>235777</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32" s="7">
+        <v>128</v>
+      </c>
+      <c r="I32" s="7">
+        <v>138279</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M32" s="7">
+        <v>353</v>
+      </c>
+      <c r="N32" s="7">
+        <v>374056</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>591</v>
+      </c>
+      <c r="D33" s="7">
+        <v>624540</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="7">
+        <v>441</v>
+      </c>
+      <c r="I33" s="7">
+        <v>475773</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1032</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1100313</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>445</v>
+      </c>
+      <c r="D34" s="7">
+        <v>484949</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H34" s="7">
+        <v>327</v>
+      </c>
+      <c r="I34" s="7">
+        <v>360295</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M34" s="7">
+        <v>772</v>
+      </c>
+      <c r="N34" s="7">
+        <v>845243</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1261</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>1345266</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>896</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>974347</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>2157</v>
       </c>
-      <c r="N31" s="7">
-        <v>2319612</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>2319613</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5281,8 +5851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344F2A10-FB91-4D87-9DA5-E8917D753DEF}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE36A4-E369-40E4-A2A0-6C49E3936365}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5298,7 +5868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5405,13 +5975,13 @@
         <v>24836</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5420,13 +5990,13 @@
         <v>18360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5435,13 +6005,13 @@
         <v>43196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +6026,13 @@
         <v>96775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -5474,10 +6044,10 @@
         <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>141</v>
@@ -5486,13 +6056,13 @@
         <v>144188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +6077,13 @@
         <v>20691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -5522,13 +6092,13 @@
         <v>36871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -5537,13 +6107,13 @@
         <v>57562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +6181,13 @@
         <v>43978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5626,13 +6196,13 @@
         <v>32669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -5641,13 +6211,13 @@
         <v>76647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +6232,13 @@
         <v>149100</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="H9" s="7">
         <v>110</v>
@@ -5677,13 +6247,13 @@
         <v>106793</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="M9" s="7">
         <v>256</v>
@@ -5692,13 +6262,13 @@
         <v>255893</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +6283,13 @@
         <v>63978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5728,13 +6298,13 @@
         <v>69730</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>131</v>
@@ -5743,13 +6313,13 @@
         <v>133708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +6387,13 @@
         <v>37151</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5832,13 +6402,13 @@
         <v>37056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="M12" s="7">
         <v>73</v>
@@ -5847,13 +6417,13 @@
         <v>74207</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +6438,13 @@
         <v>140277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -5883,13 +6453,13 @@
         <v>112027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -5898,13 +6468,13 @@
         <v>252304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +6489,13 @@
         <v>84726</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -5934,13 +6504,13 @@
         <v>67639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>149</v>
@@ -5949,13 +6519,13 @@
         <v>152365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6593,13 @@
         <v>50033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6038,13 +6608,13 @@
         <v>20400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -6053,13 +6623,13 @@
         <v>70433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6644,13 @@
         <v>113098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6089,13 +6659,13 @@
         <v>101212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="M17" s="7">
         <v>190</v>
@@ -6104,13 +6674,13 @@
         <v>214310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6695,13 @@
         <v>110470</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="H18" s="7">
         <v>93</v>
@@ -6140,13 +6710,13 @@
         <v>101356</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -6155,13 +6725,13 @@
         <v>211827</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6799,13 @@
         <v>14342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6244,13 +6814,13 @@
         <v>11103</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6259,13 +6829,13 @@
         <v>25445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6850,13 @@
         <v>51228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -6295,13 +6865,13 @@
         <v>41724</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -6310,13 +6880,13 @@
         <v>92952</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6901,13 @@
         <v>81267</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6346,13 +6916,13 @@
         <v>58100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -6361,13 +6931,13 @@
         <v>139367</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,19 +6999,19 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>6392</v>
+        <v>5598</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6450,28 +7020,28 @@
         <v>3696</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>10088</v>
+        <v>9294</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,49 +7050,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>19429</v>
+        <v>11504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>556</v>
       </c>
       <c r="H25" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>16002</v>
+        <v>14740</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="M25" s="7">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>35431</v>
+        <v>26244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,49 +7101,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>55438</v>
+        <v>41130</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>18343</v>
+        <v>11591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N26" s="7">
-        <v>73781</v>
+        <v>52721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>535</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,10 +7152,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D27" s="7">
-        <v>81259</v>
+        <v>58232</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6597,10 +7167,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I27" s="7">
-        <v>38041</v>
+        <v>30027</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6612,10 +7182,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="N27" s="7">
-        <v>119300</v>
+        <v>88259</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6629,55 +7199,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>176731</v>
+        <v>794</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>538</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="H28" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>123284</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>540</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>541</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="M28" s="7">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>300016</v>
+        <v>794</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>573</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>535</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>569906</v>
+        <v>7926</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>545</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>403</v>
+        <v>576</v>
       </c>
       <c r="H29" s="7">
-        <v>414</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>425171</v>
+        <v>1262</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="M29" s="7">
-        <v>949</v>
+        <v>11</v>
       </c>
       <c r="N29" s="7">
-        <v>995078</v>
+        <v>9187</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>219</v>
+        <v>579</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,49 +7307,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>388</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>416570</v>
+        <v>14308</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="H30" s="7">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>352039</v>
+        <v>6752</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
-        <v>723</v>
+        <v>22</v>
       </c>
       <c r="N30" s="7">
-        <v>768610</v>
+        <v>21060</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,63 +7358,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7">
+        <v>23027</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8014</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>34</v>
+      </c>
+      <c r="N31" s="7">
+        <v>31041</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>158</v>
+      </c>
+      <c r="D32" s="7">
+        <v>176731</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H32" s="7">
+        <v>123</v>
+      </c>
+      <c r="I32" s="7">
+        <v>123284</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M32" s="7">
+        <v>281</v>
+      </c>
+      <c r="N32" s="7">
+        <v>300016</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>535</v>
+      </c>
+      <c r="D33" s="7">
+        <v>569906</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H33" s="7">
+        <v>414</v>
+      </c>
+      <c r="I33" s="7">
+        <v>425171</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M33" s="7">
+        <v>949</v>
+      </c>
+      <c r="N33" s="7">
+        <v>995078</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>388</v>
+      </c>
+      <c r="D34" s="7">
+        <v>416570</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H34" s="7">
+        <v>335</v>
+      </c>
+      <c r="I34" s="7">
+        <v>352039</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="M34" s="7">
+        <v>723</v>
+      </c>
+      <c r="N34" s="7">
+        <v>768610</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1081</v>
       </c>
-      <c r="D31" s="7">
-        <v>1163208</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>1163207</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>872</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>900495</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>1953</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>2063703</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
